--- a/DDAf_2024_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{836DBB59-4048-43C1-92A9-507A11457996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17780668-9C82-4D97-8DEE-6F9DD9080426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{FD177075-5A32-4628-B404-01FCAE485A2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0A85B79D-7967-49DF-9409-A610B2E41399}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -1652,7 +1652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90E13F5-B346-425B-8104-BDF095E96F6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A94665-56B2-4774-9DFF-F370DF5FBFB6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1660,15 +1660,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="141" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="141" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1686,7 +1686,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="105.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>19</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>23</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>27</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>29</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>33</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>35</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
         <v>37</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>31.95</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>39</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>41</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>43</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>45</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>47</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>49</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>51</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>53</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>55</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
         <v>37</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>58</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>60</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>62</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>64</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>66</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>68</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>70</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>72</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>74</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>76</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>78</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>80</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>82</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>84</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="49" t="s">
         <v>37</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>31.53</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>87</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>89</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>91</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>93</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>95</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>97</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="49" t="s">
         <v>37</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>42.15</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>100</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>102</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>104</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>106</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>108</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>110</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>112</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>114</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>116</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>118</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>120</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>122</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>124</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>126</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
         <v>128</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="49"/>
       <c r="B61" s="50" t="s">
         <v>130</v>
@@ -4504,7 +4504,7 @@
         <v>25.616666666666699</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="84"/>
       <c r="B62" s="85" t="s">
         <v>131</v>
@@ -4549,7 +4549,7 @@
         <v>29.765909090909101</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="84"/>
       <c r="B63" s="93" t="s">
         <v>132</v>
@@ -4594,7 +4594,7 @@
         <v>64.945794392523396</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="101"/>
       <c r="B64" s="102" t="s">
         <v>133</v>
@@ -4639,7 +4639,7 @@
         <v>48.859090909090902</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="101"/>
       <c r="B65" s="93" t="s">
         <v>134</v>
@@ -4684,7 +4684,7 @@
         <v>44.869230769230803</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="101"/>
       <c r="B66" s="116" t="s">
         <v>135</v>
@@ -4729,7 +4729,7 @@
         <v>54.694701986755</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="101"/>
       <c r="B67" s="93" t="s">
         <v>136</v>
@@ -4774,7 +4774,7 @@
         <v>30.422222222222199</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="101"/>
       <c r="B68" s="93" t="s">
         <v>137</v>
@@ -4819,7 +4819,7 @@
         <v>27.984999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="101"/>
       <c r="B69" s="93" t="s">
         <v>138</v>
@@ -4864,7 +4864,7 @@
         <v>28.316666666666698</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="101"/>
       <c r="B70" s="93" t="s">
         <v>139</v>
@@ -4909,7 +4909,7 @@
         <v>21.112500000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="101"/>
       <c r="B71" s="93" t="s">
         <v>140</v>
@@ -4954,7 +4954,7 @@
         <v>25.616666666666699</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="101"/>
       <c r="B72" s="93" t="s">
         <v>141</v>
@@ -4999,7 +4999,7 @@
         <v>32.159999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="101"/>
       <c r="B73" s="93" t="s">
         <v>142</v>
@@ -5044,7 +5044,7 @@
         <v>30.566666666666698</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="101"/>
       <c r="B74" s="93" t="s">
         <v>142</v>
@@ -5089,7 +5089,7 @@
         <v>43.26</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="101"/>
       <c r="B75" s="93" t="s">
         <v>143</v>
@@ -5134,7 +5134,7 @@
         <v>23.05</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="101"/>
       <c r="B76" s="124" t="s">
         <v>144</v>
@@ -5179,7 +5179,7 @@
         <v>55.977777777777803</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="101"/>
       <c r="B77" s="93" t="s">
         <v>145</v>
@@ -5224,7 +5224,7 @@
         <v>52.48</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="101"/>
       <c r="B78" s="93" t="s">
         <v>145</v>
@@ -5269,7 +5269,7 @@
         <v>84.325925925926001</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="101"/>
       <c r="B79" s="116" t="s">
         <v>146</v>
@@ -5314,7 +5314,7 @@
         <v>84.047368421052695</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="101"/>
       <c r="B80" s="93" t="s">
         <v>147</v>
@@ -5359,7 +5359,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="101"/>
       <c r="B81" s="93" t="s">
         <v>148</v>
@@ -5404,7 +5404,7 @@
         <v>58.217647058823502</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="101"/>
       <c r="B82" s="93" t="s">
         <v>149</v>
@@ -5449,7 +5449,7 @@
         <v>29.967567567567599</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="101"/>
       <c r="B83" s="93" t="s">
         <v>150</v>
@@ -5494,7 +5494,7 @@
         <v>66.216666666666697</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="101"/>
       <c r="B84" s="124" t="s">
         <v>151</v>
@@ -5539,7 +5539,7 @@
         <v>18.368749999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="101"/>
       <c r="B85" s="132" t="s">
         <v>152</v>
@@ -5584,7 +5584,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="101"/>
       <c r="B86" s="93" t="s">
         <v>153</v>
@@ -5629,7 +5629,7 @@
         <v>33.209090909090897</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="101"/>
       <c r="B87" s="93" t="s">
         <v>154</v>
@@ -5674,7 +5674,7 @@
         <v>43.947826086956503</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="101"/>
       <c r="B88" s="93" t="s">
         <v>155</v>
@@ -5719,7 +5719,7 @@
         <v>47.533333333333303</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="101"/>
       <c r="B89" s="93" t="s">
         <v>156</v>
@@ -5764,7 +5764,7 @@
         <v>59.262500000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="101"/>
       <c r="B90" s="116" t="s">
         <v>157</v>
@@ -5809,7 +5809,7 @@
         <v>82.027083333333394</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="101"/>
       <c r="B91" s="93" t="s">
         <v>158</v>
@@ -5854,7 +5854,7 @@
         <v>21.211538461538499</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="101"/>
       <c r="B92" s="93" t="s">
         <v>159</v>
@@ -5899,7 +5899,7 @@
         <v>27.387499999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="101"/>
       <c r="B93" s="93" t="s">
         <v>160</v>
@@ -5944,7 +5944,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="101"/>
       <c r="B94" s="93" t="s">
         <v>161</v>
@@ -5989,7 +5989,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="101"/>
       <c r="B95" s="93" t="s">
         <v>162</v>
@@ -6034,7 +6034,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="101"/>
       <c r="B96" s="93" t="s">
         <v>163</v>
@@ -6079,7 +6079,7 @@
         <v>47.213333333333303</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="101"/>
       <c r="B97" s="124" t="s">
         <v>164</v>
@@ -6124,7 +6124,7 @@
         <v>26.1884615384615</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="101"/>
       <c r="B98" s="116" t="s">
         <v>165</v>
@@ -6169,7 +6169,7 @@
         <v>38.590909090909101</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="134"/>
       <c r="B99" s="135"/>
       <c r="C99" s="98"/>
@@ -6186,7 +6186,7 @@
       <c r="N99" s="98"/>
       <c r="O99" s="98"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>166</v>
       </c>
@@ -6204,7 +6204,7 @@
       <c r="N100" s="136"/>
       <c r="O100" s="136"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>167</v>
       </c>
@@ -6222,7 +6222,7 @@
       <c r="N101" s="136"/>
       <c r="O101" s="136"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>168</v>
       </c>
@@ -6240,7 +6240,7 @@
       <c r="N102" s="136"/>
       <c r="O102" s="136"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>169</v>
       </c>
@@ -6258,7 +6258,7 @@
       <c r="N103" s="136"/>
       <c r="O103" s="136"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>170</v>
       </c>
@@ -6276,7 +6276,7 @@
       <c r="N104" s="136"/>
       <c r="O104" s="136"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C105" s="136"/>
       <c r="D105" s="136"/>
       <c r="E105" s="136"/>
@@ -6291,7 +6291,7 @@
       <c r="N105" s="136"/>
       <c r="O105" s="136"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B106" s="137"/>
       <c r="C106" s="136"/>
       <c r="D106" s="136"/>
@@ -6307,7 +6307,7 @@
       <c r="N106" s="136"/>
       <c r="O106" s="136"/>
     </row>
-    <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="138" t="s">
         <v>171</v>
       </c>
@@ -6325,7 +6325,7 @@
       <c r="N107" s="136"/>
       <c r="O107" s="136"/>
     </row>
-    <row r="108" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="138"/>
       <c r="C108" s="136"/>
       <c r="D108" s="136"/>
@@ -6341,7 +6341,7 @@
       <c r="N108" s="136"/>
       <c r="O108" s="136"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>173</v>
       </c>
@@ -6359,7 +6359,7 @@
       <c r="N109" s="136"/>
       <c r="O109" s="136"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>174</v>
       </c>
@@ -6377,7 +6377,7 @@
       <c r="N110" s="136"/>
       <c r="O110" s="136"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B111" s="142" t="s">
         <v>175</v>
       </c>
@@ -6395,7 +6395,7 @@
       <c r="N111" s="136"/>
       <c r="O111" s="136"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>172</v>
       </c>
@@ -6413,7 +6413,7 @@
       <c r="N112" s="136"/>
       <c r="O112" s="136"/>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="136"/>
       <c r="D113" s="136"/>
@@ -6429,7 +6429,7 @@
       <c r="N113" s="136"/>
       <c r="O113" s="136"/>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="136"/>
       <c r="D114" s="136"/>
@@ -6445,7 +6445,7 @@
       <c r="N114" s="136"/>
       <c r="O114" s="136"/>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B115" s="137"/>
       <c r="C115" s="139"/>
       <c r="D115" s="139"/>
@@ -6463,11 +6463,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{E4C2EA28-8EBE-4BAF-8BB9-9807C72002C5}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{DC36BA6A-01C7-458A-A23A-1C61DD12FF4D}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{8F301165-E453-48EE-8827-A430F699E269}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{78388B6F-730C-40E0-B4B5-D91CA34B8351}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{9E16D680-FF37-4F39-932D-B743427C8C55}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{16A1DF4D-6566-471B-90BA-693369ADB187}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{7D2483AD-9878-459A-8A40-85249F053816}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{62F4EF36-9966-4BDB-9179-AEC98EC187EA}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{B3628FBD-97AC-43D6-8A0A-94D682F54963}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{BA3746C2-02E7-4A45-BEE7-93F3E014AB4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17780668-9C82-4D97-8DEE-6F9DD9080426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96CE939F-8D4A-4771-8844-03C259088B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0A85B79D-7967-49DF-9409-A610B2E41399}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{68342B06-A775-4DA8-B479-97908AFBDDD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -705,17 +705,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
       <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1331,12 +1331,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1652,7 +1652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A94665-56B2-4774-9DFF-F370DF5FBFB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B122A73C-7D03-42AA-A8B2-58A48CD1653C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1664,7 +1664,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="141" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="142" bestFit="1" customWidth="1"/>
     <col min="4" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6292,7 +6292,6 @@
       <c r="O105" s="136"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B106" s="137"/>
       <c r="C106" s="136"/>
       <c r="D106" s="136"/>
       <c r="E106" s="136"/>
@@ -6308,7 +6307,7 @@
       <c r="O106" s="136"/>
     </row>
     <row r="107" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="138" t="s">
+      <c r="B107" s="137" t="s">
         <v>171</v>
       </c>
       <c r="C107" s="136"/>
@@ -6326,7 +6325,7 @@
       <c r="O107" s="136"/>
     </row>
     <row r="108" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="138"/>
+      <c r="B108" s="137"/>
       <c r="C108" s="136"/>
       <c r="D108" s="136"/>
       <c r="E108" s="136"/>
@@ -6378,7 +6377,7 @@
       <c r="O110" s="136"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B111" s="142" t="s">
+      <c r="B111" s="138" t="s">
         <v>175</v>
       </c>
       <c r="C111" s="136"/>
@@ -6396,7 +6395,7 @@
       <c r="O111" s="136"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="138" t="s">
         <v>172</v>
       </c>
       <c r="C112" s="136"/>
@@ -6446,28 +6445,28 @@
       <c r="O114" s="136"/>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B115" s="137"/>
-      <c r="C115" s="139"/>
-      <c r="D115" s="139"/>
-      <c r="E115" s="139"/>
-      <c r="F115" s="139"/>
-      <c r="G115" s="139"/>
-      <c r="H115" s="139"/>
-      <c r="I115" s="139"/>
-      <c r="J115" s="139"/>
-      <c r="K115" s="140"/>
-      <c r="L115" s="140"/>
-      <c r="M115" s="140"/>
-      <c r="N115" s="140"/>
-      <c r="O115" s="139"/>
+      <c r="B115" s="139"/>
+      <c r="C115" s="140"/>
+      <c r="D115" s="140"/>
+      <c r="E115" s="140"/>
+      <c r="F115" s="140"/>
+      <c r="G115" s="140"/>
+      <c r="H115" s="140"/>
+      <c r="I115" s="140"/>
+      <c r="J115" s="140"/>
+      <c r="K115" s="141"/>
+      <c r="L115" s="141"/>
+      <c r="M115" s="141"/>
+      <c r="N115" s="141"/>
+      <c r="O115" s="140"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{16A1DF4D-6566-471B-90BA-693369ADB187}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{7D2483AD-9878-459A-8A40-85249F053816}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{62F4EF36-9966-4BDB-9179-AEC98EC187EA}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{B3628FBD-97AC-43D6-8A0A-94D682F54963}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{BA3746C2-02E7-4A45-BEE7-93F3E014AB4F}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{AADCDAD6-7098-4EB5-929A-ADF097CC8C2B}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{4BA95526-1982-41B5-964D-B145DDE0173B}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{78BDBDC4-B1B8-45F2-A8DC-C9F966388B7C}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{59FA7472-3F5F-425A-83B0-95A381308B37}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{3560E328-B3B1-45C0-B425-993294A17DC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96CE939F-8D4A-4771-8844-03C259088B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95FB85F1-F4E3-4B6F-8498-87DFD04F2A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{68342B06-A775-4DA8-B479-97908AFBDDD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{654FAF47-49FE-45DA-B0AE-76DCE3AF0D2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="178">
   <si>
     <t>Tableau 12 : Numérisation</t>
   </si>
@@ -471,13 +471,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1652,7 +1658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B122A73C-7D03-42AA-A8B2-58A48CD1653C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EECFFBB-362D-4890-A4CC-010FBC147864}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5047,7 +5053,7 @@
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="101"/>
       <c r="B74" s="93" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C74" s="110">
         <v>73</v>
@@ -5092,7 +5098,7 @@
     <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="101"/>
       <c r="B75" s="93" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C75" s="94">
         <v>70.400000000000006</v>
@@ -5137,7 +5143,7 @@
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="101"/>
       <c r="B76" s="124" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C76" s="125" t="s">
         <v>18</v>
@@ -5182,7 +5188,7 @@
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="101"/>
       <c r="B77" s="93" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C77" s="110">
         <v>91.383333333333297</v>
@@ -5227,7 +5233,7 @@
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="101"/>
       <c r="B78" s="93" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C78" s="110" t="s">
         <v>18</v>
@@ -5272,7 +5278,7 @@
     <row r="79" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="101"/>
       <c r="B79" s="116" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C79" s="117">
         <v>91.9</v>
@@ -5317,7 +5323,7 @@
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="101"/>
       <c r="B80" s="93" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C80" s="110">
         <v>69.066666666666706</v>
@@ -5362,7 +5368,7 @@
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="101"/>
       <c r="B81" s="93" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C81" s="110">
         <v>84.3333333333333</v>
@@ -5407,7 +5413,7 @@
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="101"/>
       <c r="B82" s="93" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C82" s="110">
         <v>69.913043478260903</v>
@@ -5452,7 +5458,7 @@
     <row r="83" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="101"/>
       <c r="B83" s="93" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C83" s="94">
         <v>81.446666666666701</v>
@@ -5497,7 +5503,7 @@
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="101"/>
       <c r="B84" s="124" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C84" s="125">
         <v>65.392307692307696</v>
@@ -5542,7 +5548,7 @@
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="101"/>
       <c r="B85" s="132" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C85" s="110">
         <v>47</v>
@@ -5587,7 +5593,7 @@
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="101"/>
       <c r="B86" s="93" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C86" s="110">
         <v>72.141666666666694</v>
@@ -5632,7 +5638,7 @@
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="101"/>
       <c r="B87" s="93" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C87" s="110">
         <v>75.6875</v>
@@ -5677,7 +5683,7 @@
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="101"/>
       <c r="B88" s="93" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C88" s="110">
         <v>99.4</v>
@@ -5722,7 +5728,7 @@
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="101"/>
       <c r="B89" s="93" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C89" s="110">
         <v>91.355555555555597</v>
@@ -5767,7 +5773,7 @@
     <row r="90" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="101"/>
       <c r="B90" s="116" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C90" s="117" t="s">
         <v>18</v>
@@ -5812,7 +5818,7 @@
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="101"/>
       <c r="B91" s="93" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C91" s="110">
         <v>66.272222222222197</v>
@@ -5857,7 +5863,7 @@
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="101"/>
       <c r="B92" s="93" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C92" s="110">
         <v>47</v>
@@ -5902,7 +5908,7 @@
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="101"/>
       <c r="B93" s="93" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C93" s="110" t="s">
         <v>18</v>
@@ -5947,7 +5953,7 @@
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="101"/>
       <c r="B94" s="93" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C94" s="110">
         <v>85.9</v>
@@ -5992,7 +5998,7 @@
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="101"/>
       <c r="B95" s="93" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C95" s="110">
         <v>69.42</v>
@@ -6037,7 +6043,7 @@
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="101"/>
       <c r="B96" s="93" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C96" s="94">
         <v>70.371428571428595</v>
@@ -6082,7 +6088,7 @@
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="101"/>
       <c r="B97" s="124" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C97" s="125">
         <v>66.155555555555594</v>
@@ -6127,7 +6133,7 @@
     <row r="98" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="101"/>
       <c r="B98" s="116" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C98" s="117">
         <v>82.25</v>
@@ -6188,7 +6194,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C100" s="136"/>
       <c r="D100" s="136"/>
@@ -6206,7 +6212,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C101" s="136"/>
       <c r="D101" s="136"/>
@@ -6224,7 +6230,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C102" s="136"/>
       <c r="D102" s="136"/>
@@ -6242,7 +6248,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C103" s="136"/>
       <c r="D103" s="136"/>
@@ -6260,7 +6266,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C104" s="136"/>
       <c r="D104" s="136"/>
@@ -6308,7 +6314,7 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="137" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C107" s="136"/>
       <c r="D107" s="136"/>
@@ -6342,7 +6348,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C109" s="136"/>
       <c r="D109" s="136"/>
@@ -6360,7 +6366,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C110" s="136"/>
       <c r="D110" s="136"/>
@@ -6378,7 +6384,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B111" s="138" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C111" s="136"/>
       <c r="D111" s="136"/>
@@ -6396,7 +6402,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B112" s="138" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C112" s="136"/>
       <c r="D112" s="136"/>
@@ -6462,11 +6468,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{AADCDAD6-7098-4EB5-929A-ADF097CC8C2B}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{4BA95526-1982-41B5-964D-B145DDE0173B}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{78BDBDC4-B1B8-45F2-A8DC-C9F966388B7C}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{59FA7472-3F5F-425A-83B0-95A381308B37}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{3560E328-B3B1-45C0-B425-993294A17DC7}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{2F4F6D4C-8F77-4AC5-A181-27B11A6A9222}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A9C0C739-041D-476B-83F4-815D68F12192}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{CD289F7B-BABD-4808-91D6-3F22E08357EE}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{A05FFB79-724E-4016-9C58-822F046AB26E}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{30028735-9BD4-401D-A5EC-F3B4E6603A7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" fitToWidth="0" orientation="portrait" r:id="rId6"/>
